--- a/Aplicación/Datos/Datos NOAA Buoy Data/SAN CLEMENTE BASIN/Correlaciones.xlsx
+++ b/Aplicación/Datos/Datos NOAA Buoy Data/SAN CLEMENTE BASIN/Correlaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\_____Publicaciones y Tesis\Aerogeneradores\Modelo Datos\Datos NOAA Buoy Data\SAN CLEMENTE BASIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\_____Publicaciones y Tesis\Aerogeneradores\Modelo Datos\Aplicación\Datos\Datos NOAA Buoy Data\SAN CLEMENTE BASIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F94729FD-2583-48C6-A73D-8D78000EBD07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF64D04C-199E-4BB4-8F87-9131B5622549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{246B54E7-5A5F-45B8-A959-D9568FA482E6}"/>
   </bookViews>
